--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9E202-8F1E-49CF-B5F7-4733374BF75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E03FB-882B-453F-8179-F63895D95C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeCollection" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -143,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +166,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1672,6 +1681,236 @@
       </c>
       <c r="G51" s="5">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6">
+        <v>102</v>
+      </c>
+      <c r="C52" s="6">
+        <v>7</v>
+      </c>
+      <c r="D52" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E52" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F52" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G52" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6">
+        <v>104</v>
+      </c>
+      <c r="C53" s="6">
+        <v>7</v>
+      </c>
+      <c r="D53" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E53" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F53" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G53" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54" s="6">
+        <v>106</v>
+      </c>
+      <c r="C54" s="6">
+        <v>7</v>
+      </c>
+      <c r="D54" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E54" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F54" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G54" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6">
+        <v>108</v>
+      </c>
+      <c r="C55" s="6">
+        <v>7</v>
+      </c>
+      <c r="D55" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E55" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F55" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G55" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6">
+        <v>110</v>
+      </c>
+      <c r="C56" s="6">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E56" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F56" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G56" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6">
+        <v>112</v>
+      </c>
+      <c r="C57" s="6">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E57" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F57" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G57" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6">
+        <v>114</v>
+      </c>
+      <c r="C58" s="6">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E58" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F58" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G58" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6">
+        <v>116</v>
+      </c>
+      <c r="C59" s="6">
+        <v>7</v>
+      </c>
+      <c r="D59" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E59" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F59" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G59" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>58</v>
+      </c>
+      <c r="B60" s="6">
+        <v>118</v>
+      </c>
+      <c r="C60" s="6">
+        <v>7</v>
+      </c>
+      <c r="D60" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E60" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F60" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G60" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6">
+        <v>120</v>
+      </c>
+      <c r="C61" s="6">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6">
+        <v>9010</v>
+      </c>
+      <c r="E61" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F61" s="6">
+        <v>9010</v>
+      </c>
+      <c r="G61" s="6">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeCollection.xlsx
+++ b/Assets/06.Table/CostumeCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E03FB-882B-453F-8179-F63895D95C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A63FB86-4670-4A06-94FB-CE90E81275BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeCollection" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +131,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -149,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +175,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1911,6 +1920,236 @@
       </c>
       <c r="G61" s="6">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7">
+        <v>122</v>
+      </c>
+      <c r="C62" s="7">
+        <v>8</v>
+      </c>
+      <c r="D62" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E62" s="7">
+        <v>200</v>
+      </c>
+      <c r="F62" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G62" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>124</v>
+      </c>
+      <c r="C63" s="7">
+        <v>8</v>
+      </c>
+      <c r="D63" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E63" s="7">
+        <v>200</v>
+      </c>
+      <c r="F63" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G63" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="7">
+        <v>126</v>
+      </c>
+      <c r="C64" s="7">
+        <v>8</v>
+      </c>
+      <c r="D64" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E64" s="7">
+        <v>200</v>
+      </c>
+      <c r="F64" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G64" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>128</v>
+      </c>
+      <c r="C65" s="7">
+        <v>8</v>
+      </c>
+      <c r="D65" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E65" s="7">
+        <v>200</v>
+      </c>
+      <c r="F65" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G65" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7">
+        <v>130</v>
+      </c>
+      <c r="C66" s="7">
+        <v>8</v>
+      </c>
+      <c r="D66" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E66" s="7">
+        <v>200</v>
+      </c>
+      <c r="F66" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G66" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>132</v>
+      </c>
+      <c r="C67" s="7">
+        <v>8</v>
+      </c>
+      <c r="D67" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E67" s="7">
+        <v>200</v>
+      </c>
+      <c r="F67" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G67" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7">
+        <v>134</v>
+      </c>
+      <c r="C68" s="7">
+        <v>8</v>
+      </c>
+      <c r="D68" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E68" s="7">
+        <v>200</v>
+      </c>
+      <c r="F68" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G68" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>136</v>
+      </c>
+      <c r="C69" s="7">
+        <v>8</v>
+      </c>
+      <c r="D69" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E69" s="7">
+        <v>200</v>
+      </c>
+      <c r="F69" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G69" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7">
+        <v>138</v>
+      </c>
+      <c r="C70" s="7">
+        <v>8</v>
+      </c>
+      <c r="D70" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E70" s="7">
+        <v>200</v>
+      </c>
+      <c r="F70" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G70" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
+        <v>140</v>
+      </c>
+      <c r="C71" s="7">
+        <v>8</v>
+      </c>
+      <c r="D71" s="7">
+        <v>9016</v>
+      </c>
+      <c r="E71" s="7">
+        <v>200</v>
+      </c>
+      <c r="F71" s="7">
+        <v>9016</v>
+      </c>
+      <c r="G71" s="7">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
